--- a/DATA_goal/Junction_Flooding_48.xlsx
+++ b/DATA_goal/Junction_Flooding_48.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,110 +1690,6 @@
         <v>13.82</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>40751.49305555555</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>67.03</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>5.58</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA_goal/Junction_Flooding_48.xlsx
+++ b/DATA_goal/Junction_Flooding_48.xlsx
@@ -451,14 +451,14 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -468,8 +468,8 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>40751.42361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.93</v>
+        <v>0.49</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.25</v>
+        <v>1.03</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.05</v>
+        <v>0.5</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="N2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U2" s="4" t="n">
         <v>0.79</v>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>7.95</v>
-      </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.65</v>
+        <v>0.66</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.75</v>
+        <v>0.27</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>0.27</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.43055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.05</v>
+        <v>0.31</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.75</v>
+        <v>0.47</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>8.75</v>
+        <v>0.87</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.95</v>
+        <v>0.3</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.62</v>
+        <v>2.66</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.58</v>
+        <v>0.26</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.74</v>
+        <v>0.47</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.55</v>
+        <v>0.35</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.4375</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.55</v>
+        <v>0.46</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.12</v>
+        <v>1.71</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.57</v>
+        <v>0.66</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AA4" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>66.78</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>3.57</v>
-      </c>
       <c r="AB4" s="4" t="n">
-        <v>3.66</v>
+        <v>0.37</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.74</v>
+        <v>0.27</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.44444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.34</v>
+        <v>2.03</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>43.19</v>
+        <v>4.32</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.88</v>
+        <v>3.69</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>57.56</v>
+        <v>5.76</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.14</v>
+        <v>2.41</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.8</v>
+        <v>1.58</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.28</v>
+        <v>2.23</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.71</v>
+        <v>1.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>232.84</v>
+        <v>23.28</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>43.77</v>
+        <v>4.38</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.09</v>
+        <v>3.01</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.65</v>
+        <v>1.57</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.3</v>
+        <v>2.83</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.39</v>
+        <v>1.34</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.88</v>
+        <v>1.89</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>51.63</v>
+        <v>5.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.06</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>40751.45138888889</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>24.52</v>
+        <v>2.45</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>21.2</v>
+        <v>2.12</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>8.84</v>
+        <v>0.88</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>38.01</v>
+        <v>3.8</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10.25</v>
+        <v>1.02</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>129.89</v>
+        <v>12.99</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>25.09</v>
+        <v>2.51</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>17.35</v>
+        <v>1.74</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>17.81</v>
+        <v>1.78</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>10.87</v>
+        <v>1.09</v>
       </c>
       <c r="AE6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>34.23</v>
+        <v>3.42</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>40751.45833333334</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>8.23</v>
+        <v>0.82</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>22.53</v>
+        <v>2.25</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>19.39</v>
+        <v>1.94</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>33.55</v>
+        <v>3.36</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>12.61</v>
+        <v>1.26</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>11.64</v>
+        <v>1.16</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>118.45</v>
+        <v>11.85</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>22.95</v>
+        <v>2.3</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>15.85</v>
+        <v>1.58</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>15.78</v>
+        <v>1.58</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="AE7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>30.05</v>
+        <v>3</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.45</v>
+        <v>0.45</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>40751.46527777778</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>7.24</v>
+        <v>0.72</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>2.85</v>
+        <v>0.29</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>15.68</v>
+        <v>1.57</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>3.65</v>
+        <v>0.37</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="R8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AB8" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="S8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>38.39</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>2.21</v>
-      </c>
       <c r="AC8" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="AE8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>14.17</v>
+        <v>1.42</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>40751.47222222222</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>7.08</v>
+        <v>0.71</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>19.52</v>
+        <v>1.95</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>16.7</v>
+        <v>1.67</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>26.37</v>
+        <v>2.64</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.94</v>
+        <v>0.49</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.58</v>
+        <v>0.76</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>101.28</v>
+        <v>10.13</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>19.71</v>
+        <v>1.97</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>13.57</v>
+        <v>1.36</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>12.6</v>
+        <v>1.26</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>6.08</v>
+        <v>0.61</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AE9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>23.38</v>
+        <v>2.34</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>40751.47916666666</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>5.84</v>
+        <v>0.58</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>12.24</v>
+        <v>1.22</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>10.62</v>
+        <v>1.06</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>4.4</v>
+        <v>0.44</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>19.32</v>
+        <v>1.93</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.15</v>
+        <v>0.31</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>4.83</v>
+        <v>0.48</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4.5</v>
+        <v>0.45</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>61.27</v>
+        <v>6.13</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>4.25</v>
+        <v>0.42</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>5.44</v>
+        <v>0.54</v>
       </c>
       <c r="AE10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>17.4</v>
+        <v>1.74</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_48.xlsx
+++ b/DATA_goal/Junction_Flooding_48.xlsx
@@ -655,103 +655,103 @@
         <v>40751.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>8.41</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.64</v>
+        <v>16.42</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.69</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.78</v>
+        <v>27.85</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.25</v>
+        <v>22.5</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.57</v>
+        <v>35.66</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.48</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.07</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.12</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.15</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.78</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.4</v>
+        <v>14.03</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.72</v>
+        <v>147.17</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.83</v>
+        <v>28.32</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.66</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.1</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.39</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.28</v>
+        <v>32.84</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.05</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>67.09</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.46</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>1.99</v>
+        <v>19.95</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.69</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.28</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>3.85</v>
+        <v>38.46</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.5</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.7</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_48.xlsx
+++ b/DATA_goal/Junction_Flooding_48.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.2</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.61</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.19</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.37</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.79</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.8</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.43</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.63</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.25</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.31</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.79</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.02</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.74</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.14</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.42</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.55</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.17</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.28</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.89</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.74</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.36</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.88</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.52</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
         <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.63</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.39</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.69</v>
+        <v>12.692</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.59</v>
+        <v>9.587999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.824</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.85</v>
+        <v>27.848</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.5</v>
+        <v>22.503</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.446999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>35.66</v>
+        <v>35.661</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.48</v>
+        <v>15.477</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.38</v>
+        <v>7.379</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>10.07</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.12</v>
+        <v>11.119</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>12.15</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.78</v>
+        <v>3.784</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>14.03</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>8.611000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.26</v>
+        <v>0.255</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>147.17</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.32</v>
+        <v>28.323</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.66</v>
+        <v>18.657</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.31</v>
+        <v>10.309</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.36</v>
+        <v>1.361</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.17</v>
+        <v>19.172</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.98</v>
+        <v>7.977</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.66</v>
+        <v>7.664</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.1</v>
+        <v>9.097</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.39</v>
+        <v>12.388</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.71</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>32.84</v>
+        <v>32.837</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>5.62</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.41</v>
+        <v>11.412</v>
       </c>
     </row>
     <row r="4">
@@ -863,28 +863,28 @@
         <v>40751.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.05</v>
+        <v>6.049</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>4.56</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.455</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>13.39</v>
+        <v>13.394</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.65</v>
+        <v>10.652</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.37</v>
+        <v>4.367</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>21.29</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.39</v>
+        <v>7.392</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>3.7</v>
@@ -893,73 +893,73 @@
         <v>4.69</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.33</v>
+        <v>5.332</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.91</v>
+        <v>5.906</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>1.95</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.89</v>
+        <v>4.888</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.68</v>
+        <v>6.682</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.23</v>
+        <v>4.226</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.127</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.414</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>67.09</v>
+        <v>67.086</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.81</v>
+        <v>13.813</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.51</v>
+        <v>4.511</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9</v>
+        <v>9.000999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.04</v>
+        <v>5.044</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.655</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11</v>
+        <v>11.001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.78</v>
+        <v>3.779</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.81</v>
+        <v>3.806</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>4.5</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.03</v>
+        <v>6.032</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>19.95</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.77</v>
+        <v>2.768</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.43</v>
+        <v>5.434</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>3.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>26.42</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>41.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>170.05</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>32.46</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>21.76</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.57</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.32</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_48.xlsx
+++ b/DATA_goal/Junction_Flooding_48.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>40751.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.69</v>
+        <v>3.692</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.78</v>
+        <v>2.776</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.308</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.24</v>
+        <v>8.242000000000001</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.46</v>
+        <v>6.464</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.6</v>
+        <v>2.596</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.56</v>
+        <v>13.562</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.52</v>
+        <v>4.518</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.34</v>
+        <v>2.345</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.79</v>
+        <v>2.795</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.27</v>
+        <v>3.274</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.66</v>
+        <v>3.664</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.26</v>
+        <v>1.263</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.01</v>
+        <v>3.008</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.06</v>
+        <v>4.058</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.64</v>
+        <v>2.644</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.077</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.284</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.46</v>
+        <v>38.462</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.52</v>
+        <v>8.516</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.78</v>
+        <v>2.776</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.5</v>
+        <v>5.497</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>3.14</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.402</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.99</v>
+        <v>6.988</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.3</v>
+        <v>2.295</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.4</v>
+        <v>2.403</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.83</v>
+        <v>2.829</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.74</v>
+        <v>3.742</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.7</v>
+        <v>12.704</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.73</v>
+        <v>1.734</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.31</v>
+        <v>3.314</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.03472222222</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>26.42</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>41.45</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>170.05</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>32.46</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>37.57</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>13.32</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_48.xlsx
+++ b/DATA_goal/Junction_Flooding_48.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>40751.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.692</v>
+        <v>3.69</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.776</v>
+        <v>2.78</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.308</v>
+        <v>0.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.242000000000001</v>
+        <v>8.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.464</v>
+        <v>6.46</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.596</v>
+        <v>2.6</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.562</v>
+        <v>13.56</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.518</v>
+        <v>4.52</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.345</v>
+        <v>2.34</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.795</v>
+        <v>2.79</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.274</v>
+        <v>3.27</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.664</v>
+        <v>3.66</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.263</v>
+        <v>1.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.008</v>
+        <v>3.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.058</v>
+        <v>4.06</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.644</v>
+        <v>2.64</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.077</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.284</v>
+        <v>0.28</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.462</v>
+        <v>38.46</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.516</v>
+        <v>8.52</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.776</v>
+        <v>2.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.497</v>
+        <v>5.5</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>3.14</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.402</v>
+        <v>0.4</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.988</v>
+        <v>6.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.295</v>
+        <v>2.3</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.403</v>
+        <v>2.4</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.829</v>
+        <v>2.83</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.742</v>
+        <v>3.74</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.704</v>
+        <v>12.7</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.734</v>
+        <v>1.73</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.314</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>26.42</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>41.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>170.05</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>32.46</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>21.76</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.83</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>37.57</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.32</v>
+        <v>3.31</v>
       </c>
     </row>
   </sheetData>
